--- a/outputs-HGR-r202/test-f__Megasphaeraceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Megasphaeraceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Row</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>even_MAG-GUT5004.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT54583.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT56570.fa</t>
@@ -286,7 +289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -302,19 +305,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -1282,19 +1285,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.00059913921899890381</v>
+        <v>0.0020035149911014514</v>
       </c>
       <c r="C50">
-        <v>0.0021331470454493545</v>
+        <v>0.99791899820807062</v>
       </c>
       <c r="D50">
-        <v>0.99726709096959854</v>
+        <v>7.3195322125963863e-05</v>
       </c>
       <c r="E50">
-        <v>6.2276595333470152e-07</v>
+        <v>4.2914787019309121e-06</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1302,16 +1305,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.0045905585408194611</v>
+        <v>0.00059913921899890381</v>
       </c>
       <c r="C51">
-        <v>0.0057118846618294788</v>
+        <v>0.0021331470454493545</v>
       </c>
       <c r="D51">
-        <v>0.9896972486538731</v>
+        <v>0.99726709096959854</v>
       </c>
       <c r="E51">
-        <v>3.0814347792358362e-07</v>
+        <v>6.2276595333470152e-07</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -1322,16 +1325,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.00023083268637891726</v>
+        <v>0.0045905585408194611</v>
       </c>
       <c r="C52">
-        <v>0.0017535957276534192</v>
+        <v>0.0057118846618294788</v>
       </c>
       <c r="D52">
-        <v>0.99801375917061175</v>
+        <v>0.9896972486538731</v>
       </c>
       <c r="E52">
-        <v>1.8124153560634703e-06</v>
+        <v>3.0814347792358362e-07</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -1342,16 +1345,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.00031760181302752311</v>
+        <v>0.00023083268637891726</v>
       </c>
       <c r="C53">
-        <v>0.0014969162147889499</v>
+        <v>0.0017535957276534192</v>
       </c>
       <c r="D53">
-        <v>0.99818434454807181</v>
+        <v>0.99801375917061175</v>
       </c>
       <c r="E53">
-        <v>1.1374241117665373e-06</v>
+        <v>1.8124153560634703e-06</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -1362,16 +1365,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.00048348769448575965</v>
+        <v>0.00031760181302752311</v>
       </c>
       <c r="C54">
-        <v>0.011513313566129568</v>
+        <v>0.0014969162147889499</v>
       </c>
       <c r="D54">
-        <v>0.98800237752564701</v>
+        <v>0.99818434454807181</v>
       </c>
       <c r="E54">
-        <v>8.2121373758662001e-07</v>
+        <v>1.1374241117665373e-06</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -1382,16 +1385,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.0032945571243370489</v>
+        <v>0.00048348769448575965</v>
       </c>
       <c r="C55">
-        <v>0.00052676176056214413</v>
+        <v>0.011513313566129568</v>
       </c>
       <c r="D55">
-        <v>0.99617851813580183</v>
+        <v>0.98800237752564701</v>
       </c>
       <c r="E55">
-        <v>1.6297929893317976e-07</v>
+        <v>8.2121373758662001e-07</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -1402,16 +1405,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.00035097890991374098</v>
+        <v>0.0032945571243370489</v>
       </c>
       <c r="C56">
-        <v>0.0032508523248098533</v>
+        <v>0.00052676176056214413</v>
       </c>
       <c r="D56">
-        <v>0.99639731673343701</v>
+        <v>0.99617851813580183</v>
       </c>
       <c r="E56">
-        <v>8.5203183951387037e-07</v>
+        <v>1.6297929893317976e-07</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -1422,16 +1425,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.00033862940258719016</v>
+        <v>0.00035097890991374098</v>
       </c>
       <c r="C57">
-        <v>0.0030882707268475233</v>
+        <v>0.0032508523248098533</v>
       </c>
       <c r="D57">
-        <v>0.99657237550700517</v>
+        <v>0.99639731673343701</v>
       </c>
       <c r="E57">
-        <v>7.2436356002713359e-07</v>
+        <v>8.5203183951387037e-07</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -1442,16 +1445,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.00038262778571376198</v>
+        <v>0.00033862940258719016</v>
       </c>
       <c r="C58">
-        <v>0.00081202167363371566</v>
+        <v>0.0030882707268475233</v>
       </c>
       <c r="D58">
-        <v>0.9988040516800013</v>
+        <v>0.99657237550700517</v>
       </c>
       <c r="E58">
-        <v>1.2988606512353153e-06</v>
+        <v>7.2436356002713359e-07</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -1462,16 +1465,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.0006801172015653002</v>
+        <v>0.00038262778571376198</v>
       </c>
       <c r="C59">
-        <v>0.0052886896699192174</v>
+        <v>0.00081202167363371566</v>
       </c>
       <c r="D59">
-        <v>0.99402996600466786</v>
+        <v>0.9988040516800013</v>
       </c>
       <c r="E59">
-        <v>1.2271238475353219e-06</v>
+        <v>1.2988606512353153e-06</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -1482,16 +1485,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.00035068467250207977</v>
+        <v>0.0006801172015653002</v>
       </c>
       <c r="C60">
-        <v>0.00061624258480437715</v>
+        <v>0.0052886896699192174</v>
       </c>
       <c r="D60">
-        <v>0.99903076916340405</v>
+        <v>0.99402996600466786</v>
       </c>
       <c r="E60">
-        <v>2.303579289499137e-06</v>
+        <v>1.2271238475353219e-06</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -1502,16 +1505,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.00036353638364301186</v>
+        <v>0.00035068467250207977</v>
       </c>
       <c r="C61">
-        <v>0.0048612447247543319</v>
+        <v>0.00061624258480437715</v>
       </c>
       <c r="D61">
-        <v>0.99477435332641007</v>
+        <v>0.99903076916340405</v>
       </c>
       <c r="E61">
-        <v>8.6556519246350995e-07</v>
+        <v>2.303579289499137e-06</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -1522,16 +1525,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.00031425439757091155</v>
+        <v>0.00036353638364301186</v>
       </c>
       <c r="C62">
-        <v>0.00039357414090637207</v>
+        <v>0.0048612447247543319</v>
       </c>
       <c r="D62">
-        <v>0.99929086739047457</v>
+        <v>0.99477435332641007</v>
       </c>
       <c r="E62">
-        <v>1.3040710480941273e-06</v>
+        <v>8.6556519246350995e-07</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -1542,16 +1545,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.00040530072158438348</v>
+        <v>0.00031425439757091155</v>
       </c>
       <c r="C63">
-        <v>0.00098419914398144813</v>
+        <v>0.00039357414090637207</v>
       </c>
       <c r="D63">
-        <v>0.99860892348866892</v>
+        <v>0.99929086739047457</v>
       </c>
       <c r="E63">
-        <v>1.576645765356549e-06</v>
+        <v>1.3040710480941273e-06</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -1562,16 +1565,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.00054388094846518947</v>
+        <v>0.00040530072158438348</v>
       </c>
       <c r="C64">
-        <v>0.017526319083095602</v>
+        <v>0.00098419914398144813</v>
       </c>
       <c r="D64">
-        <v>0.98192932114173981</v>
+        <v>0.99860892348866892</v>
       </c>
       <c r="E64">
-        <v>4.7882669938001069e-07</v>
+        <v>1.576645765356549e-06</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -1582,16 +1585,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.00036960853839282707</v>
+        <v>0.00054388094846518947</v>
       </c>
       <c r="C65">
-        <v>0.0017258876252933435</v>
+        <v>0.017526319083095602</v>
       </c>
       <c r="D65">
-        <v>0.99790381226477676</v>
+        <v>0.98192932114173981</v>
       </c>
       <c r="E65">
-        <v>6.9157153708805644e-07</v>
+        <v>4.7882669938001069e-07</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -1602,16 +1605,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.00025648871929823222</v>
+        <v>0.00036960853839282707</v>
       </c>
       <c r="C66">
-        <v>0.0025408477203299903</v>
+        <v>0.0017258876252933435</v>
       </c>
       <c r="D66">
-        <v>0.99720076881887298</v>
+        <v>0.99790381226477676</v>
       </c>
       <c r="E66">
-        <v>1.8947414988213211e-06</v>
+        <v>6.9157153708805644e-07</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -1622,16 +1625,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.00031820539556119465</v>
+        <v>0.00025648871929823222</v>
       </c>
       <c r="C67">
-        <v>0.001239424829714659</v>
+        <v>0.0025408477203299903</v>
       </c>
       <c r="D67">
-        <v>0.99844010294377472</v>
+        <v>0.99720076881887298</v>
       </c>
       <c r="E67">
-        <v>2.266830949440837e-06</v>
+        <v>1.8947414988213211e-06</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -1642,16 +1645,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.00037224613421326356</v>
+        <v>0.00031820539556119465</v>
       </c>
       <c r="C68">
-        <v>0.001768490999546371</v>
+        <v>0.001239424829714659</v>
       </c>
       <c r="D68">
-        <v>0.99785803984064214</v>
+        <v>0.99844010294377472</v>
       </c>
       <c r="E68">
-        <v>1.2230255981957384e-06</v>
+        <v>2.266830949440837e-06</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -1662,16 +1665,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.0003184018457659048</v>
+        <v>0.00037224613421326356</v>
       </c>
       <c r="C69">
-        <v>0.0028075352783782813</v>
+        <v>0.001768490999546371</v>
       </c>
       <c r="D69">
-        <v>0.99687325528841841</v>
+        <v>0.99785803984064214</v>
       </c>
       <c r="E69">
-        <v>8.0758743748036209e-07</v>
+        <v>1.2230255981957384e-06</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -1682,18 +1685,38 @@
         <v>69</v>
       </c>
       <c r="B70">
+        <v>0.0003184018457659048</v>
+      </c>
+      <c r="C70">
+        <v>0.0028075352783782813</v>
+      </c>
+      <c r="D70">
+        <v>0.99687325528841841</v>
+      </c>
+      <c r="E70">
+        <v>8.0758743748036209e-07</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
         <v>0.099177302290828231</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>0.20611738492855444</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>0.68994667079627092</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>0.0047586419843464282</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>3</v>
       </c>
     </row>
